--- a/Testing_data/1_full_dataset.xlsx
+++ b/Testing_data/1_full_dataset.xlsx
@@ -2680,15 +2680,15 @@
   </sheetPr>
   <dimension ref="A1:BQ89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AV1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB1" activeCellId="0" sqref="BB1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,7 +2900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
